--- a/隔离餐费.xlsx
+++ b/隔离餐费.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zacka\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R-self-improvement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6ECF85-FE4A-4D6B-8342-A8CE8F89D408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E76A0A-C74C-4C11-AC12-88952C02AD39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -380,7 +380,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -437,7 +437,7 @@
         <v>129</v>
       </c>
       <c r="H2">
-        <v>528</v>
+        <v>538</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -457,11 +457,11 @@
         <v>22</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F11" si="0">SUM(B3:E3)</f>
+        <f t="shared" ref="F3:F9" si="0">SUM(B3:E3)</f>
         <v>112</v>
       </c>
       <c r="H3">
-        <v>528</v>
+        <v>538</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -485,7 +485,7 @@
         <v>111</v>
       </c>
       <c r="H4">
-        <v>528</v>
+        <v>538</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -509,7 +509,7 @@
         <v>128</v>
       </c>
       <c r="H5">
-        <v>528</v>
+        <v>538</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -533,7 +533,7 @@
         <v>176</v>
       </c>
       <c r="H6">
-        <v>528</v>
+        <v>538</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -557,7 +557,7 @@
         <v>149</v>
       </c>
       <c r="H7">
-        <v>528</v>
+        <v>538</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -581,7 +581,7 @@
         <v>120</v>
       </c>
       <c r="H8">
-        <v>528</v>
+        <v>538</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -608,7 +608,7 @@
         <v>925</v>
       </c>
       <c r="H9">
-        <v>528</v>
+        <v>538</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -625,11 +625,11 @@
       </c>
       <c r="H11">
         <f>SUM(H2:H10)</f>
-        <v>4224</v>
+        <v>4304</v>
       </c>
       <c r="I11">
         <f>SUM(F11:H11)</f>
-        <v>5149</v>
+        <v>5229</v>
       </c>
     </row>
   </sheetData>
